--- a/sse/综合数据分析（天）/股市相关财经政策及国际利率_融资保证金.xlsx
+++ b/sse/综合数据分析（天）/股市相关财经政策及国际利率_融资保证金.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重大财经政策" sheetId="1" r:id="rId1"/>
     <sheet name="美联储会议" sheetId="2" r:id="rId2"/>
     <sheet name="融资融券相关信息" sheetId="3" r:id="rId3"/>
     <sheet name="融资融券保证金比例" sheetId="4" r:id="rId4"/>
+    <sheet name="美联储会议决定" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">重大财经政策!$A$1:$H$62</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>公布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +395,92 @@
     <t>一年期存款基准利率上0.27个百分点；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">　新浪财经讯 北京时间6月18日凌晨消息，在为期两天的政策制定会议闭幕以后，美国联邦公开市场委员会(FOMC)周三公布了货币政策声明。
+在此次会议上，FOMC决定将基准利率维持不变，符合市场广泛预期；同时指出继第一季度中几无变动以后，经济活动一直都在适度扩张。FOMC预计，当其看到就业市场进一步改善并有理由相信通胀将朝着中期内重返2%目标的方向运动时，调高联邦基金利率的目标区间将是合适的。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2015年06月18日 02:14 </t>
+  </si>
+  <si>
+    <t>会后决议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会后决议时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF353535"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 02:14</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年07月30日 02:00:53</t>
+  </si>
+  <si>
+    <t>周四，美联储7月FOMC会议维持利率不变。美联储称，劳动力市场继续改善，但通胀令人担忧。“美联储通讯社”称，最新声明意味着美联储仍可能年内加息，但低通胀或使加息推迟。</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +568,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF353535"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF949CA8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -519,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +663,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +971,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -2482,7 +2603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="42" hidden="1" thickBot="1">
+    <row r="62" spans="1:9" ht="14.25" hidden="1" thickBot="1">
       <c r="A62" s="1">
         <v>38903</v>
       </c>
@@ -2573,19 +2694,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2593,233 +2715,251 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>42353</v>
       </c>
       <c r="B2" s="2">
         <v>42354</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>42355</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>42304</v>
       </c>
       <c r="B3" s="2">
         <v>42305</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>42306</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>42263</v>
       </c>
       <c r="B4" s="2">
         <v>42264</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>42265</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="2">
         <v>42213</v>
       </c>
       <c r="B5" s="2">
         <v>42214</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2">
         <v>42215</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>42171</v>
       </c>
       <c r="B6" s="2">
         <v>42172</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2">
         <v>42173</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>42122</v>
       </c>
       <c r="B7" s="2">
         <v>42123</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>42124</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>42080</v>
       </c>
       <c r="B8" s="2">
         <v>42081</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>42081</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>42031</v>
       </c>
       <c r="B9" s="2">
         <v>42032</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>42033</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>41989</v>
       </c>
       <c r="B10" s="2">
         <v>41990</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>42003</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>41940</v>
       </c>
       <c r="B11" s="2">
         <v>41941</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>41942</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>41898</v>
       </c>
       <c r="B12" s="2">
         <v>41899</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>41900</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>41849</v>
       </c>
       <c r="B13" s="2">
         <v>41850</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>41851</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>41807</v>
       </c>
       <c r="B14" s="2">
         <v>41808</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>41809</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>41758</v>
       </c>
       <c r="B15" s="2">
         <v>41759</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>41764</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>41716</v>
       </c>
       <c r="B16" s="2">
         <v>41717</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>41718</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>41667</v>
       </c>
       <c r="B17" s="2">
         <v>41668</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>41669</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3019,4 +3159,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>